--- a/气象/分站资料/俄罗斯/外贝加尔边疆区冷站阈值天数.xlsx
+++ b/气象/分站资料/俄罗斯/外贝加尔边疆区冷站阈值天数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\分站资料\俄罗斯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26906B0-FEF9-4E1B-8669-DB5D17DAFB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912ADE82-1A72-46DC-B30C-33DB409020F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D308DEC9-CED1-4015-BAB2-E937FD661EDE}"/>
   </bookViews>
@@ -1349,91 +1349,91 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1779,41 +1779,41 @@
     <col min="5" max="5" width="12.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" style="14" customWidth="1"/>
     <col min="7" max="7" width="16.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="27" customWidth="1"/>
     <col min="9" max="9" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="45" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
@@ -1828,22 +1828,22 @@
       <c r="D3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="48">
+      <c r="E3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="33">
         <v>-49.7</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="34">
         <v>14252</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="39"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
@@ -1858,22 +1858,22 @@
       <c r="D4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="48">
+      <c r="E4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="33">
         <v>-49.2</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="34">
         <v>14614</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="39"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24" t="s">
@@ -1888,18 +1888,18 @@
       <c r="D5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="48">
+      <c r="E5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="33">
         <v>-55.9</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="34">
         <v>14999</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="O5" s="39"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
@@ -1914,22 +1914,22 @@
       <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="48">
+      <c r="E6" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="33">
         <v>-51.1</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="35">
         <v>15307</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -1944,19 +1944,19 @@
       <c r="D7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="48">
+      <c r="E7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="33">
         <v>-49.7</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="29" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       <c r="D8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="48">
+      <c r="E8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="33">
         <v>-48.7</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="34">
         <v>16064</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24" t="s">
@@ -2003,22 +2003,22 @@
       <c r="D9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="48">
+      <c r="E9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="33">
         <v>-50.2</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="34">
         <v>16461</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24" t="s">
@@ -2033,18 +2033,18 @@
       <c r="D10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="48">
+      <c r="E10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="33">
         <v>-51.6</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="34">
         <v>16808</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="O10" s="39"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
@@ -2059,18 +2059,18 @@
       <c r="D11" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="48">
+      <c r="E11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="33">
         <v>-53.1</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="34">
         <v>17189</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="O11" s="39"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24" t="s">
@@ -2085,18 +2085,18 @@
       <c r="D12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="48">
+      <c r="E12" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="33">
         <v>-50.2</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="34">
         <v>17559</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="O12" s="39"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
@@ -2111,18 +2111,18 @@
       <c r="D13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="48">
+      <c r="E13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="33">
         <v>-51.1</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="34">
         <v>17886</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="O13" s="39"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -2137,18 +2137,18 @@
       <c r="D14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="48">
+      <c r="E14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="33">
         <v>-51</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="34">
         <v>18265</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="O14" s="39"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="24" t="s">
@@ -2163,18 +2163,18 @@
       <c r="D15" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="48">
+      <c r="E15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="33">
         <v>-54.7</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="34">
         <v>18628</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="O15" s="39"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
@@ -2189,18 +2189,18 @@
       <c r="D16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="48">
+      <c r="E16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="33">
         <v>-52</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="34">
         <v>19024</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="O16" s="39"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24" t="s">
@@ -2215,18 +2215,18 @@
       <c r="D17" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="52">
+      <c r="E17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="37">
         <v>-56.2</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="34">
         <v>19349</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="O17" s="39"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24" t="s">
@@ -2241,18 +2241,18 @@
       <c r="D18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="48">
+      <c r="E18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="33">
         <v>-51.6</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="34">
         <v>19772</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="O18" s="39"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
@@ -2267,18 +2267,18 @@
       <c r="D19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="48">
+      <c r="E19" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="33">
         <v>-50.2</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="34">
         <v>20133</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="O19" s="39"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="24" t="s">
@@ -2293,18 +2293,18 @@
       <c r="D20" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="48">
+      <c r="E20" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="33">
         <v>-51.8</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="34">
         <v>20471</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="O20" s="39"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
@@ -2319,18 +2319,18 @@
       <c r="D21" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="48">
+      <c r="E21" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="33">
         <v>-49.8</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="34">
         <v>20851</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="O21" s="39"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
@@ -2345,18 +2345,18 @@
       <c r="D22" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="48">
+      <c r="E22" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="33">
         <v>-52.1</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="34">
         <v>21196</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="O22" s="39"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
@@ -2371,18 +2371,18 @@
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="48">
+      <c r="E23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="33">
         <v>-55.2</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="34">
         <v>21551</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="O23" s="39"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24" t="s">
@@ -2397,18 +2397,18 @@
       <c r="D24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="48">
+      <c r="E24" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="33">
         <v>-54.1</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="34">
         <v>21898</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="O24" s="39"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="24" t="s">
@@ -2423,18 +2423,18 @@
       <c r="D25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="48">
+      <c r="E25" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="33">
         <v>-52.2</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="34">
         <v>22290</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="O25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="24" t="s">
@@ -2449,18 +2449,18 @@
       <c r="D26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="48">
+      <c r="E26" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="33">
         <v>-51.1</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="34">
         <v>22636</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="O26" s="39"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
@@ -2475,18 +2475,18 @@
       <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="48">
+      <c r="E27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="33">
         <v>-48.8</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="34">
         <v>23011</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="O27" s="39"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="24" t="s">
@@ -2501,18 +2501,18 @@
       <c r="D28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="48">
+      <c r="E28" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="33">
         <v>-47.8</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="34">
         <v>23378</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="O28" s="39"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
@@ -2527,18 +2527,18 @@
       <c r="D29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="48">
+      <c r="E29" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="33">
         <v>-51.2</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="34">
         <v>23757</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="O29" s="39"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
@@ -2553,18 +2553,18 @@
       <c r="D30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="48">
+      <c r="E30" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="33">
         <v>-55.8</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="34">
         <v>24124</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="O30" s="39"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
@@ -2579,18 +2579,18 @@
       <c r="D31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="48">
+      <c r="E31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="33">
         <v>-48.8</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="34">
         <v>24511</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="O31" s="39"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
@@ -2605,18 +2605,18 @@
       <c r="D32" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="48">
+      <c r="E32" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="33">
         <v>-48.9</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="34">
         <v>24833</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="O32" s="39"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="24" t="s">
@@ -2631,18 +2631,18 @@
       <c r="D33" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="48">
+      <c r="E33" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="33">
         <v>-55.7</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="34">
         <v>25198</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="O33" s="39"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
@@ -2657,18 +2657,18 @@
       <c r="D34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="48">
+      <c r="E34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="33">
         <v>-48.4</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="34">
         <v>25560</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="O34" s="39"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35" spans="1:15" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="24" t="s">
@@ -2683,17 +2683,17 @@
       <c r="D35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="48">
+      <c r="E35" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="33">
         <v>-51.5</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="42"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -2708,18 +2708,18 @@
       <c r="D36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="48">
+      <c r="E36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="33">
         <v>-48.7</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="34">
         <v>26333</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="O36" s="39"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24" t="s">
@@ -2734,18 +2734,18 @@
       <c r="D37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="48">
+      <c r="E37" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="33">
         <v>-53</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="34">
         <v>26644</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="O37" s="39"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
@@ -2760,18 +2760,18 @@
       <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="48">
+      <c r="E38" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="33">
         <v>-52.1</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="34">
         <v>27048</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="O38" s="39"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
@@ -2786,18 +2786,18 @@
       <c r="D39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="48">
+      <c r="E39" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="33">
         <v>-50.9</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="34">
         <v>27389</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="O39" s="39"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+      <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
@@ -2812,18 +2812,18 @@
       <c r="D40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="48">
+      <c r="E40" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="33">
         <v>-50</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="34">
         <v>27780</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="O40" s="39"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
@@ -2838,18 +2838,18 @@
       <c r="D41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="48">
+      <c r="E41" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="33">
         <v>-52.1</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="34">
         <v>28143</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="O41" s="39"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
@@ -2864,18 +2864,18 @@
       <c r="D42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="48">
+      <c r="E42" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="33">
         <v>-50.2</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G42" s="34">
         <v>28515</v>
       </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="42"/>
-      <c r="O42" s="39"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24" t="s">
@@ -2890,18 +2890,18 @@
       <c r="D43" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="48">
+      <c r="E43" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="33">
         <v>-54.3</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="34">
         <v>28865</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="42"/>
-      <c r="O43" s="39"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="24" t="s">
@@ -2916,18 +2916,18 @@
       <c r="D44" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="48">
+      <c r="E44" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="33">
         <v>-53.9</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="34">
         <v>29224</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="O44" s="39"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
@@ -2942,18 +2942,18 @@
       <c r="D45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="48">
+      <c r="E45" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="33">
         <v>-48.3</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G45" s="34">
         <v>29589</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
-      <c r="O45" s="39"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="24" t="s">
@@ -2968,18 +2968,18 @@
       <c r="D46" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="48">
+      <c r="E46" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="33">
         <v>-49.9</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G46" s="34">
         <v>29956</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="O46" s="39"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="O46" s="26"/>
     </row>
     <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="24" t="s">
@@ -2994,18 +2994,18 @@
       <c r="D47" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="48">
+      <c r="E47" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="33">
         <v>-48.1</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47" s="34">
         <v>30322</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
-      <c r="O47" s="39"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="24" t="s">
@@ -3020,18 +3020,18 @@
       <c r="D48" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="48">
+      <c r="E48" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="33">
         <v>-47.8</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="34">
         <v>30716</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="O48" s="39"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="29"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="24" t="s">
@@ -3046,18 +3046,18 @@
       <c r="D49" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="48">
+      <c r="E49" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="33">
         <v>-52.2</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="34">
         <v>31062</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
-      <c r="O49" s="39"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="24" t="s">
@@ -3072,18 +3072,18 @@
       <c r="D50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="48">
+      <c r="E50" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="33">
         <v>-48.5</v>
       </c>
-      <c r="G50" s="49">
+      <c r="G50" s="34">
         <v>31429</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42"/>
-      <c r="O50" s="39"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="O50" s="26"/>
     </row>
     <row r="51" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="24" t="s">
@@ -3098,18 +3098,18 @@
       <c r="D51" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="48">
+      <c r="E51" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="33">
         <v>-55</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="34">
         <v>31786</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
-      <c r="O51" s="39"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="24" t="s">
@@ -3124,18 +3124,18 @@
       <c r="D52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="48">
+      <c r="E52" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="33">
         <v>-51.6</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="34">
         <v>32140</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
-      <c r="O52" s="39"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="24" t="s">
@@ -3150,18 +3150,18 @@
       <c r="D53" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="52">
+      <c r="E53" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="37">
         <v>-45.6</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="34">
         <v>32529</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
-      <c r="O53" s="39"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="24" t="s">
@@ -3176,17 +3176,17 @@
       <c r="D54" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="48">
+      <c r="E54" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="33">
         <v>-49.7</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="42"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="24" t="s">
@@ -3201,18 +3201,18 @@
       <c r="D55" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="48">
+      <c r="E55" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="33">
         <v>-47.2</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="34">
         <v>33290</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="O55" s="39"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="O55" s="26"/>
     </row>
     <row r="56" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="24" t="s">
@@ -3227,18 +3227,18 @@
       <c r="D56" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="48">
+      <c r="E56" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="33">
         <v>-47.4</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G56" s="34">
         <v>33581</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42"/>
-      <c r="O56" s="39"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="24" t="s">
@@ -3253,18 +3253,18 @@
       <c r="D57" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="48">
+      <c r="E57" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="33">
         <v>-45.7</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G57" s="34">
         <v>33982</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
-      <c r="O57" s="39"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
@@ -3279,18 +3279,18 @@
       <c r="D58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="48">
+      <c r="E58" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="33">
         <v>-51.2</v>
       </c>
-      <c r="G58" s="49">
+      <c r="G58" s="34">
         <v>34338</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42"/>
-      <c r="O58" s="39"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="O58" s="26"/>
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="24" t="s">
@@ -3305,18 +3305,18 @@
       <c r="D59" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="48">
+      <c r="E59" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="33">
         <v>-45.8</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="34">
         <v>34726</v>
       </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="42"/>
-      <c r="O59" s="39"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
+      <c r="O59" s="26"/>
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
@@ -3331,18 +3331,18 @@
       <c r="D60" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="48">
+      <c r="E60" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="33">
         <v>-50.2</v>
       </c>
-      <c r="G60" s="49">
+      <c r="G60" s="34">
         <v>35070</v>
       </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="42"/>
-      <c r="O60" s="39"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
@@ -3357,18 +3357,18 @@
       <c r="D61" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E61" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="48">
+      <c r="E61" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="33">
         <v>-54.6</v>
       </c>
-      <c r="G61" s="49">
+      <c r="G61" s="34">
         <v>35449</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="42"/>
-      <c r="O61" s="39"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="O61" s="26"/>
     </row>
     <row r="62" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24" t="s">
@@ -3383,18 +3383,18 @@
       <c r="D62" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="48">
+      <c r="E62" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="33">
         <v>-51.3</v>
       </c>
-      <c r="G62" s="49">
+      <c r="G62" s="34">
         <v>35814</v>
       </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="42"/>
-      <c r="O62" s="39"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="29"/>
+      <c r="O62" s="26"/>
     </row>
     <row r="63" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="24" t="s">
@@ -3409,18 +3409,18 @@
       <c r="D63" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="48">
+      <c r="E63" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="33">
         <v>-49.4</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="34">
         <v>36186</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="42"/>
-      <c r="O63" s="39"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
+      <c r="O63" s="26"/>
     </row>
     <row r="64" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="24" t="s">
@@ -3435,17 +3435,17 @@
       <c r="D64" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="48">
+      <c r="E64" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="33">
         <v>-47.9</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H64" s="44"/>
-      <c r="I64" s="42"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="29"/>
     </row>
     <row r="65" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="24" t="s">
@@ -3460,18 +3460,18 @@
       <c r="D65" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="48">
+      <c r="E65" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="33">
         <v>-50.8</v>
       </c>
-      <c r="G65" s="49">
+      <c r="G65" s="34">
         <v>36928</v>
       </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="42"/>
-      <c r="O65" s="39"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="29"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="24" t="s">
@@ -3486,18 +3486,18 @@
       <c r="D66" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="48">
+      <c r="E66" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="33">
         <v>-46.5</v>
       </c>
-      <c r="G66" s="49">
+      <c r="G66" s="34">
         <v>37296</v>
       </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
-      <c r="O66" s="39"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="29"/>
+      <c r="O66" s="26"/>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24" t="s">
@@ -3512,17 +3512,17 @@
       <c r="D67" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="48">
+      <c r="E67" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="33">
         <v>-50.8</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="34">
         <v>37598</v>
       </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="42"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3538,17 +3538,17 @@
       <c r="D68" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E68" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="48">
+      <c r="E68" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="33">
         <v>-45.9</v>
       </c>
-      <c r="G68" s="49">
+      <c r="G68" s="34">
         <v>38007</v>
       </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="42"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3564,17 +3564,17 @@
       <c r="D69" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="48">
+      <c r="E69" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="33">
         <v>-46.3</v>
       </c>
-      <c r="G69" s="49">
+      <c r="G69" s="34">
         <v>38334</v>
       </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="42"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3590,17 +3590,17 @@
       <c r="D70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="48">
+      <c r="E70" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="33">
         <v>-50.5</v>
       </c>
-      <c r="G70" s="49">
+      <c r="G70" s="34">
         <v>38748</v>
       </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="42"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3616,17 +3616,17 @@
       <c r="D71" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="48">
+      <c r="E71" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="33">
         <v>-49.3</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="34">
         <v>39067</v>
       </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3642,17 +3642,17 @@
       <c r="D72" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="48">
+      <c r="E72" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="33">
         <v>-49.7</v>
       </c>
-      <c r="G72" s="49">
+      <c r="G72" s="34">
         <v>39460</v>
       </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3668,17 +3668,17 @@
       <c r="D73" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="48">
+      <c r="E73" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="33">
         <v>-48</v>
       </c>
-      <c r="G73" s="49">
+      <c r="G73" s="34">
         <v>39835</v>
       </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3694,17 +3694,17 @@
       <c r="D74" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="48">
+      <c r="E74" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="33">
         <v>-46.8</v>
       </c>
-      <c r="G74" s="49">
+      <c r="G74" s="34">
         <v>40209</v>
       </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="42"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3720,17 +3720,17 @@
       <c r="D75" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="48">
+      <c r="E75" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="33">
         <v>-49.3</v>
       </c>
-      <c r="G75" s="49">
+      <c r="G75" s="34">
         <v>40535</v>
       </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="42"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="29"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3746,17 +3746,17 @@
       <c r="D76" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="48">
+      <c r="E76" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" s="33">
         <v>-49.1</v>
       </c>
-      <c r="G76" s="49">
+      <c r="G76" s="34">
         <v>40918</v>
       </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="42"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -3772,17 +3772,17 @@
       <c r="D77" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E77" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="48">
+      <c r="E77" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="33">
         <v>-48.9</v>
       </c>
-      <c r="G77" s="51" t="s">
+      <c r="G77" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="H77" s="44"/>
-      <c r="I77" s="42"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="24" t="s">
@@ -3797,17 +3797,17 @@
       <c r="D78" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="48">
+      <c r="E78" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="33">
         <v>-52.3</v>
       </c>
-      <c r="G78" s="49">
+      <c r="G78" s="34">
         <v>41650</v>
       </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="42"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3823,35 +3823,35 @@
       <c r="D79" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E79" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="48">
+      <c r="E79" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="33">
         <v>-48.3</v>
       </c>
-      <c r="G79" s="49">
+      <c r="G79" s="34">
         <v>42042</v>
       </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F80" s="38"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="54"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="52"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F81" s="21"/>
@@ -3944,12 +3944,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -3959,10 +3959,10 @@
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4955,10 +4955,10 @@
       <c r="B69" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="35"/>
+      <c r="D69" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D68">
